--- a/medicine/Enfance/Dušan_Petričić/Dušan_Petričić.xlsx
+++ b/medicine/Enfance/Dušan_Petričić/Dušan_Petričić.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Du%C5%A1an_Petri%C4%8Di%C4%87</t>
+          <t>Dušan_Petričić</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dušan Petričić (Душан Петричић), né le 10 mai 1946 à Belgrade[1], Yougoslavie, est un illustrateur et caricaturiste serbe. Il a illustré des journaux et magazines tels que  Politika, The New York Times, The Wall Street Journal ou le Toronto Star[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dušan Petričić (Душан Петричић), né le 10 mai 1946 à Belgrade, Yougoslavie, est un illustrateur et caricaturiste serbe. Il a illustré des journaux et magazines tels que  Politika, The New York Times, The Wall Street Journal ou le Toronto Star.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Du%C5%A1an_Petri%C4%8Di%C4%87</t>
+          <t>Dušan_Petričić</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît le 10 mai 1946 à Belgrade, alors en Yougoslavie.
 De 1993 à 2013, il vit et travaille à Toronto, en Ontario, au Canada.
-Il vit actuellement à Zemun, en Serbie[2].
+Il vit actuellement à Zemun, en Serbie.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Du%C5%A1an_Petri%C4%8Di%C4%87</t>
+          <t>Dušan_Petričić</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a reçu différents prix dont, en 1987, le Levstikova nagrada (sl) (Slovénie)[3].
-Il a également reçu l'IBBY Certificate of Honour, un prix du livre d'Alberta pour ses illustrations dans « On Tumbledown Hill » de Tim Wynne-Jones[1].
-Il figure dans la « Honour List » 1998[4] de l' IBBY, catégorie Illustration, pour Bone Button Borscht (texte de Aubrey Davis)
-Parmi les œuvres auxquelles il a participé et qui ont reçu des prix, on peut citer The Truth About Wind, SNAP!, The Man With the Violin, Mattland, et My Toronto[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a reçu différents prix dont, en 1987, le Levstikova nagrada (sl) (Slovénie).
+Il a également reçu l'IBBY Certificate of Honour, un prix du livre d'Alberta pour ses illustrations dans « On Tumbledown Hill » de Tim Wynne-Jones.
+Il figure dans la « Honour List » 1998 de l' IBBY, catégorie Illustration, pour Bone Button Borscht (texte de Aubrey Davis)
+Parmi les œuvres auxquelles il a participé et qui ont reçu des prix, on peut citer The Truth About Wind, SNAP!, The Man With the Violin, Mattland, et My Toronto.
 </t>
         </is>
       </c>
